--- a/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/9.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/9.xlsx
@@ -938,7 +938,7 @@
   <dimension ref="A1:GW39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="EN17" sqref="EN17"/>
+      <selection activeCell="EC10" sqref="EC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2971,9 +2971,7 @@
       <c r="DG10" s="8"/>
       <c r="DH10" s="29"/>
       <c r="DI10" s="32"/>
-      <c r="DJ10" s="7">
-        <v>1</v>
-      </c>
+      <c r="DJ10" s="7"/>
       <c r="DK10" s="7"/>
       <c r="DL10" s="33"/>
       <c r="DM10" s="35"/>
@@ -3180,9 +3178,7 @@
       <c r="DG11" s="1"/>
       <c r="DH11" s="13"/>
       <c r="DI11" s="21"/>
-      <c r="DJ11" s="66">
-        <v>1</v>
-      </c>
+      <c r="DJ11" s="66"/>
       <c r="DK11" s="6"/>
       <c r="DL11" s="22"/>
       <c r="DM11" s="14"/>
@@ -3389,9 +3385,7 @@
       <c r="DG12" s="1"/>
       <c r="DH12" s="13"/>
       <c r="DI12" s="23"/>
-      <c r="DJ12" s="79">
-        <v>1</v>
-      </c>
+      <c r="DJ12" s="79"/>
       <c r="DK12" s="24"/>
       <c r="DL12" s="26"/>
       <c r="DM12" s="14"/>
@@ -3598,9 +3592,7 @@
       <c r="DG13" s="1"/>
       <c r="DH13" s="1"/>
       <c r="DI13" s="28"/>
-      <c r="DJ13" s="77">
-        <v>1</v>
-      </c>
+      <c r="DJ13" s="77"/>
       <c r="DK13" s="28"/>
       <c r="DL13" s="28"/>
       <c r="DM13" s="1"/>
@@ -3807,9 +3799,7 @@
       <c r="DG14" s="1"/>
       <c r="DH14" s="1"/>
       <c r="DI14" s="1"/>
-      <c r="DJ14" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ14" s="63"/>
       <c r="DK14" s="1"/>
       <c r="DL14" s="1"/>
       <c r="DM14" s="1"/>
@@ -4016,9 +4006,7 @@
       <c r="DG15" s="1"/>
       <c r="DH15" s="1"/>
       <c r="DI15" s="1"/>
-      <c r="DJ15" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ15" s="63"/>
       <c r="DK15" s="1"/>
       <c r="DL15" s="1"/>
       <c r="DM15" s="1"/>
@@ -4225,9 +4213,7 @@
       <c r="DG16" s="1"/>
       <c r="DH16" s="1"/>
       <c r="DI16" s="1"/>
-      <c r="DJ16" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ16" s="63"/>
       <c r="DK16" s="1"/>
       <c r="DL16" s="1"/>
       <c r="DM16" s="1"/>
@@ -4434,9 +4420,7 @@
       <c r="DG17" s="1"/>
       <c r="DH17" s="1"/>
       <c r="DI17" s="1"/>
-      <c r="DJ17" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ17" s="63"/>
       <c r="DK17" s="1"/>
       <c r="DL17" s="1"/>
       <c r="DM17" s="1"/>
@@ -4643,9 +4627,7 @@
       <c r="DG18" s="1"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
-      <c r="DJ18" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ18" s="63"/>
       <c r="DK18" s="1"/>
       <c r="DL18" s="1"/>
       <c r="DM18" s="1"/>
@@ -4852,9 +4834,7 @@
       <c r="DG19" s="1"/>
       <c r="DH19" s="1"/>
       <c r="DI19" s="63"/>
-      <c r="DJ19" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ19" s="63"/>
       <c r="DK19" s="1"/>
       <c r="DL19" s="1"/>
       <c r="DM19" s="1"/>
@@ -5061,9 +5041,7 @@
       <c r="DG20" s="1"/>
       <c r="DH20" s="1"/>
       <c r="DI20" s="63"/>
-      <c r="DJ20" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ20" s="63"/>
       <c r="DK20" s="1"/>
       <c r="DL20" s="1"/>
       <c r="DM20" s="1"/>
@@ -5270,9 +5248,7 @@
       <c r="DG21" s="1"/>
       <c r="DH21" s="1"/>
       <c r="DI21" s="63"/>
-      <c r="DJ21" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ21" s="63"/>
       <c r="DK21" s="1"/>
       <c r="DL21" s="1"/>
       <c r="DM21" s="1"/>
@@ -5479,9 +5455,7 @@
       <c r="DG22" s="1"/>
       <c r="DH22" s="1"/>
       <c r="DI22" s="63"/>
-      <c r="DJ22" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ22" s="63"/>
       <c r="DK22" s="1"/>
       <c r="DL22" s="1"/>
       <c r="DM22" s="1"/>
@@ -5712,45 +5686,19 @@
       <c r="DQ23" s="86">
         <v>1</v>
       </c>
-      <c r="DR23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DS23" s="81">
-        <v>1</v>
-      </c>
-      <c r="DT23" s="62">
-        <v>1</v>
-      </c>
-      <c r="DU23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DV23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DW23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DX23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DY23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DZ23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EA23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EB23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EC23" s="63">
-        <v>1</v>
-      </c>
-      <c r="ED23" s="63">
-        <v>1</v>
-      </c>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="81"/>
+      <c r="DT23" s="62"/>
+      <c r="DU23" s="63"/>
+      <c r="DV23" s="63"/>
+      <c r="DW23" s="63"/>
+      <c r="DX23" s="63"/>
+      <c r="DY23" s="63"/>
+      <c r="DZ23" s="63"/>
+      <c r="EA23" s="63"/>
+      <c r="EB23" s="63"/>
+      <c r="EC23" s="63"/>
+      <c r="ED23" s="63"/>
       <c r="EE23" s="1"/>
       <c r="EF23" s="1"/>
       <c r="EG23" s="1"/>
